--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$18</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="115">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-laboratoryprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-05-12T13:07:15+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logical model describing the model for the prescription laboratory. This draft is used in the HL7 Belgian workgroup for laboratory.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +223,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription</t>
   </si>
   <si>
     <t/>
@@ -393,29 +493,183 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -461,1739 +715,1721 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI18">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -586,77 +586,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -275,7 +278,7 @@
     <t>BeLaboratoryPrescription.co-prescriber.status</t>
   </si>
   <si>
-    <t xml:space="preserve">code {code}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -297,7 +300,7 @@
     <t>BeLaboratoryPrescription.disciplineProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {CodeableConcept}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -307,7 +310,7 @@
     <t>BeLaboratoryPrescription.timestampCreation</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {dateTime}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -329,10 +332,13 @@
     <t>BeLaboratoryPrescription.reasonCurrentStatus</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.uhmepIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {Identifier}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -342,7 +348,7 @@
     <t>BeLaboratoryPrescription.validityPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {Period}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -675,7 +681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -719,6 +725,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -827,6 +834,9 @@
       <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -834,1607 +844,1694 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L14" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,17 +240,78 @@
     <t>Base</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.identifier</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.status</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.authoredOn</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The NIHDI of the prescribing healthcare party</t>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.co-prescriber</t>
@@ -263,10 +324,16 @@
     <t>Information about co prescribers</t>
   </si>
   <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
-    <t>NIHDI of co prescriber party</t>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.co-prescriber.co-prescriberSubstitute</t>
@@ -275,74 +342,73 @@
     <t>NIHDI of co prescriber substitute party</t>
   </si>
   <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.co-prescriber.status</t>
   </si>
   <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.patient</t>
   </si>
   <si>
-    <t>The SSIN of the person for which the laboratory is prescribed.</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.provider</t>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.reason</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.disciplineProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.timestampCreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.reasonCurrentStatus</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.uhmepIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once availaboratoryle there</t>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.validityPeriod</t>
@@ -355,10 +421,16 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
+    <t>BeReferralPrescription.validityPeriod</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.executionPeriod</t>
   </si>
   <si>
-    <t>When this prescription is executed, availaboratoryle after start of execution</t>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.executionPeriod</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.prescribedService</t>
@@ -367,10 +439,38 @@
     <t>What is prescribed</t>
   </si>
   <si>
+    <t>BeReferralPrescription.prescribedService</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.resultReceiver</t>
   </si>
   <si>
     <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
   </si>
 </sst>
 </file>
@@ -681,7 +781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -720,7 +820,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="59.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="56.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -946,28 +1046,28 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1018,13 +1118,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1046,10 +1146,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1061,13 +1161,13 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1094,13 +1194,11 @@
         <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>71</v>
@@ -1118,13 +1216,13 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
@@ -1138,7 +1236,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1146,10 +1244,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1161,13 +1259,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1218,13 +1316,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1238,7 +1336,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1246,10 +1344,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1261,13 +1359,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1318,13 +1416,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1338,7 +1436,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1346,10 +1444,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1361,13 +1459,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1418,13 +1516,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1438,7 +1536,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1446,10 +1544,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1461,13 +1559,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1518,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1538,7 +1636,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1546,10 +1644,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1561,13 +1659,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1618,13 +1716,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1638,7 +1736,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1646,10 +1744,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1661,13 +1759,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1718,13 +1816,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1738,7 +1836,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1746,10 +1844,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1761,13 +1859,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1818,13 +1916,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1838,7 +1936,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1846,10 +1944,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -1861,13 +1959,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1894,11 +1992,13 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>71</v>
@@ -1916,13 +2016,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -1936,7 +2036,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1944,10 +2044,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -1959,13 +2059,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2016,13 +2116,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2036,7 +2136,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2047,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2059,13 +2159,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2116,13 +2216,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2136,7 +2236,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2144,10 +2244,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2159,13 +2259,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2216,13 +2316,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2236,7 +2336,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2247,7 +2347,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2259,13 +2359,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2316,13 +2416,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2336,7 +2436,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2344,10 +2444,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2359,13 +2459,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2416,13 +2516,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2436,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2444,10 +2544,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2459,13 +2559,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2516,21 +2616,521 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AG18" t="s" s="2">
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="G21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -240,7 +240,89 @@
     <t>Base</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.identifier</t>
+    <t>BeLaboratoryPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type of the practitioner</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -250,205 +332,132 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.identifier</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>BeReferralPrescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.reasonCurrentStatus</t>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.statusReason</t>
+  </si>
+  <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.reasonCurrentStatus</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>The co-prescriber party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>NIHDI of co prescriber substitute party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>Status of co prescribing status (to sign, signed or refused)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.patient</t>
-  </si>
-  <si>
-    <t>The SSIN of the person for which the referral is prescribed.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.reason</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
+    <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.note</t>
@@ -781,7 +790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -790,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -820,7 +829,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1046,10 +1055,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -1061,13 +1070,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1118,13 +1127,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1138,7 +1147,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1146,10 +1155,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1194,35 +1203,37 @@
         <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
@@ -1236,7 +1247,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1244,10 +1255,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1259,13 +1270,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1316,13 +1327,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1336,7 +1347,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1344,10 +1355,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1359,13 +1370,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1416,13 +1427,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1436,7 +1447,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1444,10 +1455,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1459,13 +1470,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1516,13 +1527,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1536,7 +1547,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1547,7 +1558,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1559,13 +1570,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1616,13 +1627,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1636,7 +1647,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1644,10 +1655,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1659,13 +1670,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1716,13 +1727,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1736,7 +1747,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1747,7 +1758,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1759,13 +1770,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1816,13 +1827,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1836,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1844,10 +1855,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1862,10 +1873,10 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1916,13 +1927,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1944,10 +1955,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -1959,13 +1970,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2016,13 +2027,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2036,7 +2047,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2047,7 +2058,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2059,13 +2070,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2116,13 +2127,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2136,7 +2147,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2147,7 +2158,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2159,13 +2170,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2216,13 +2227,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2236,7 +2247,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2259,13 +2270,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2316,7 +2327,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2336,7 +2347,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2359,13 +2370,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2416,7 +2427,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2436,7 +2447,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2444,10 +2455,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2459,13 +2470,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2516,13 +2527,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2536,7 +2547,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2544,10 +2555,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2559,13 +2570,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2616,13 +2627,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2636,7 +2647,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2647,7 +2658,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2659,13 +2670,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2716,13 +2727,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2736,7 +2747,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2744,10 +2755,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2759,13 +2770,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2816,13 +2827,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2836,7 +2847,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2844,10 +2855,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2859,13 +2870,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2892,13 +2903,11 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -2919,10 +2928,10 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -2947,7 +2956,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -2959,13 +2968,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3016,13 +3025,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3036,7 +3045,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3044,10 +3053,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3059,7 +3068,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3119,10 +3128,10 @@
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3131,6 +3140,106 @@
         <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,7 @@
     <t>BeLaboratoryPrescription.status</t>
   </si>
   <si>
-    <t>Current status</t>
+    <t>Status of the requisition</t>
   </si>
   <si>
     <t>required</t>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Status of the execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.clinicalStatus</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.statusReason</t>
@@ -790,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2968,7 +2977,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3068,13 +3077,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3125,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3145,7 +3154,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3153,7 +3162,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3168,7 +3177,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3228,7 +3237,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3240,6 +3249,106 @@
         <v>71</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -427,6 +427,15 @@
     <t>BeReferralPrescription.problemCode</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.resultReceiver</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t>BeLaboratoryPrescription.status</t>
   </si>
   <si>
-    <t>Status of the requisition</t>
+    <t>Current status</t>
   </si>
   <si>
     <t>required</t>
@@ -451,15 +460,6 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.clinicalStatus</t>
-  </si>
-  <si>
-    <t>Status of the execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.clinicalStatus</t>
-  </si>
-  <si>
     <t>BeLaboratoryPrescription.statusReason</t>
   </si>
   <si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.note</t>
@@ -799,7 +808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1767,7 +1776,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1842,7 +1851,7 @@
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1867,7 +1876,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1942,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2664,10 +2673,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2739,10 +2748,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2767,7 +2776,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2842,7 +2851,7 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2864,10 +2873,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2879,7 +2888,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>139</v>
@@ -2912,35 +2921,37 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -2954,7 +2965,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2980,10 +2991,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3010,13 +3021,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3165,7 +3174,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3177,13 +3186,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3234,13 +3243,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3254,7 +3263,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3262,10 +3271,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3277,7 +3286,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3337,10 +3346,10 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3349,6 +3358,106 @@
         <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-laboratoryprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-laboratoryprescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,11 @@
     <t>BeLaboratoryPrescription.resultReceiver</t>
   </si>
   <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
     <t>BeReferralPrescription.resultReceiver</t>
@@ -2876,7 +2880,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2888,13 +2892,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2945,13 +2949,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -2965,7 +2969,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2991,10 +2995,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3021,11 +3025,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3043,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3063,7 +3067,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3089,10 +3093,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3143,7 +3147,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3163,7 +3167,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3189,10 +3193,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3243,7 +3247,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3263,7 +3267,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3286,13 +3290,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3343,7 +3347,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3363,7 +3367,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3389,10 +3393,10 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3443,7 +3447,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -335,6 +335,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Proposal Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PPS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.basedOn</t>
   </si>
   <si>
@@ -378,25 +409,25 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.intendedProvider</t>
+    <t>BeLaboratoryPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -406,7 +437,25 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.serviceRequested</t>
@@ -473,20 +522,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.bodySite</t>
+    <t>BeLaboratoryPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -812,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1880,7 +1961,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1892,13 +1973,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1949,13 +2030,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1969,7 +2050,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1977,7 +2058,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -1992,13 +2073,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2049,10 +2130,10 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2069,7 +2150,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2092,13 +2173,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2149,7 +2230,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2169,7 +2250,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2180,7 +2261,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2192,10 +2273,10 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>117</v>
@@ -2255,7 +2336,7 @@
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2277,10 +2358,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2292,13 +2373,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2349,13 +2430,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2369,7 +2450,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2380,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2392,13 +2473,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2449,13 +2530,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2469,7 +2550,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2477,7 +2558,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2492,7 +2573,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2552,7 +2633,7 @@
         <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2577,10 +2658,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2592,7 +2673,7 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2652,10 +2733,10 @@
         <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2677,10 +2758,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2752,10 +2833,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2777,7 +2858,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>76</v>
@@ -2792,13 +2873,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2849,10 +2930,10 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2869,7 +2950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2877,7 +2958,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>76</v>
@@ -2892,7 +2973,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -2952,7 +3033,7 @@
         <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -2992,7 +3073,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3025,29 +3106,31 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3067,7 +3150,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3075,7 +3158,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3090,13 +3173,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3147,10 +3230,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3250,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3175,10 +3258,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3190,13 +3273,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3247,13 +3330,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3267,7 +3350,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3278,7 +3361,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3290,13 +3373,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3347,13 +3430,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3367,7 +3450,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3375,7 +3458,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3390,13 +3473,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3447,21 +3530,919 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="L27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.ppsRejectionReason</t>
+    <t>BeLaboratoryPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.requisition</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="190">
   <si>
     <t>Property</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.toBePerformedAfter</t>
@@ -893,7 +902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -902,7 +911,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -932,7 +941,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -3158,7 +3167,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3173,7 +3182,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3233,7 +3242,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3273,7 +3282,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3358,7 +3367,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3433,7 +3442,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3473,13 +3482,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3530,7 +3539,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -3550,7 +3559,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3573,7 +3582,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3606,29 +3615,31 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3648,7 +3659,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3671,13 +3682,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3704,13 +3715,11 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -3959,7 +3968,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -3971,7 +3980,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4034,7 +4043,7 @@
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4059,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4071,7 +4080,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4134,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4259,7 +4268,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4271,7 +4280,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4334,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4356,10 +4365,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4371,7 +4380,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4431,10 +4440,10 @@
         <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4443,6 +4452,106 @@
         <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.ppsDenialReason</t>
+    <t>BeLaboratoryPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsDenialReason</t>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.requisition</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -256,11 +256,20 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
+    <t>BeLaboratoryPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriber</t>
   </si>
   <si>
     <t>The prescribing healthcare party</t>
@@ -902,7 +911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -921,7 +930,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1367,10 +1376,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1382,13 +1391,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1439,13 +1448,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1459,7 +1468,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1470,7 +1479,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1482,7 +1491,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1545,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1582,13 +1591,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1639,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1659,7 +1668,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1682,7 +1691,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1767,7 +1776,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1782,7 +1791,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1842,7 +1851,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1867,7 +1876,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -1882,13 +1891,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1939,10 +1948,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1959,7 +1968,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1982,7 +1991,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2082,13 +2091,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2139,7 +2148,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2159,7 +2168,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2182,7 +2191,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2270,7 +2279,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2282,13 +2291,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2339,13 +2348,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2359,7 +2368,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2367,10 +2376,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2382,13 +2391,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2439,13 +2448,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2467,7 +2476,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>76</v>
@@ -2482,7 +2491,7 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
@@ -2542,7 +2551,7 @@
         <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2582,7 +2591,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2670,7 +2679,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2682,7 +2691,7 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2745,7 +2754,7 @@
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2782,7 +2791,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2867,10 +2876,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2882,13 +2891,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2939,13 +2948,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2959,7 +2968,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2982,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -3067,7 +3076,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>76</v>
@@ -3082,7 +3091,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3142,7 +3151,7 @@
         <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3267,7 +3276,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3282,7 +3291,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3342,7 +3351,7 @@
         <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3382,7 +3391,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3467,7 +3476,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3542,7 +3551,7 @@
         <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3582,13 +3591,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3639,7 +3648,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -3659,7 +3668,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3682,7 +3691,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3715,29 +3724,31 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3757,7 +3768,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3780,13 +3791,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3813,13 +3824,11 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -3880,7 +3889,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>170</v>
@@ -3980,7 +3989,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4068,7 +4077,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4080,7 +4089,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4143,7 +4152,7 @@
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4168,7 +4177,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4180,7 +4189,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4243,7 +4252,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4280,7 +4289,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4368,7 +4377,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4380,7 +4389,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4443,7 +4452,7 @@
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4465,10 +4474,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4480,7 +4489,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4540,10 +4549,10 @@
         <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4552,6 +4561,106 @@
         <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.intendedPerformer</t>
@@ -911,7 +920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2779,7 +2788,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2791,7 +2800,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2854,7 +2863,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2891,7 +2900,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>136</v>
@@ -2976,10 +2985,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -2991,13 +3000,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3048,13 +3057,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3091,7 +3100,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3176,7 +3185,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3191,7 +3200,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3251,7 +3260,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3376,7 +3385,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3391,7 +3400,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3451,7 +3460,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3491,7 +3500,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>155</v>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3651,7 +3660,7 @@
         <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3691,13 +3700,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3748,7 +3757,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3768,7 +3777,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3791,7 +3800,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3824,29 +3833,31 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -3866,7 +3877,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3889,13 +3900,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3922,13 +3933,11 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>71</v>
@@ -3989,7 +3998,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4089,7 +4098,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4177,7 +4186,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4189,7 +4198,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4252,7 +4261,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4277,7 +4286,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4289,7 +4298,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4352,7 +4361,7 @@
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4389,7 +4398,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4477,7 +4486,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4489,7 +4498,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4552,7 +4561,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4574,10 +4583,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4589,7 +4598,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>191</v>
@@ -4649,10 +4658,10 @@
         <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4661,6 +4670,106 @@
         <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="200">
   <si>
     <t>Property</t>
   </si>
@@ -369,10 +369,27 @@
     <t>BeLaboratoryPrescription.requisition</t>
   </si>
   <si>
-    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
     <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.basedOn</t>
@@ -446,10 +463,6 @@
   </si>
   <si>
     <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
@@ -920,7 +933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2300,14 +2313,12 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2357,7 +2368,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2377,7 +2388,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2388,7 +2399,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2400,14 +2411,12 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2457,13 +2466,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2477,7 +2486,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2485,10 +2494,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2500,13 +2509,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2557,13 +2566,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2577,7 +2586,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2585,7 +2594,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2600,13 +2609,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2657,10 +2666,10 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2677,7 +2686,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2700,13 +2709,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2757,7 +2766,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -2777,7 +2786,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2803,10 +2812,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2857,7 +2866,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -2877,7 +2886,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2888,7 +2897,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2900,13 +2909,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2957,13 +2966,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -2977,7 +2986,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3000,13 +3009,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3057,7 +3066,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3085,10 +3094,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3100,13 +3109,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3157,13 +3166,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3177,7 +3186,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3200,13 +3209,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3257,7 +3266,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3277,7 +3286,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3285,7 +3294,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3300,13 +3309,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3357,10 +3366,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3377,7 +3386,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3403,10 +3412,10 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3457,7 +3466,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3477,7 +3486,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3485,7 +3494,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3500,13 +3509,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3557,10 +3566,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3577,7 +3586,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3600,13 +3609,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3657,7 +3666,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -3677,7 +3686,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3685,7 +3694,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3703,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3757,10 +3766,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3777,7 +3786,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3800,7 +3809,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3900,13 +3909,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3933,29 +3942,31 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -3975,7 +3986,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3998,13 +4009,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4031,13 +4042,11 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4055,7 +4064,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4075,7 +4084,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4098,13 +4107,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4155,7 +4164,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4175,7 +4184,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4198,13 +4207,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4255,7 +4264,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4275,7 +4284,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4286,7 +4295,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4298,13 +4307,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4355,13 +4364,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4375,7 +4384,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4386,7 +4395,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4398,13 +4407,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4455,13 +4464,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4475,7 +4484,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4498,13 +4507,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4555,7 +4564,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -4575,7 +4584,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4586,7 +4595,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4598,13 +4607,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4655,13 +4664,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4675,7 +4684,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4683,10 +4692,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4698,13 +4707,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4755,13 +4764,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4770,6 +4779,106 @@
         <v>71</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -344,26 +344,26 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Proposal Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.ppsRejectionReason</t>
+    <t>BeLaboratoryPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PPS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.requisition</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -942,42 +942,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1773,7 +1773,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2073,7 +2073,7 @@
         <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>73</v>
@@ -3069,7 +3069,7 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -3097,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3172,7 +3172,7 @@
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -3294,7 +3294,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3369,7 +3369,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -256,22 +256,13 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.recorder</t>
+    <t>BeLaboratoryPrescription.prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
-  </si>
-  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
@@ -344,270 +335,158 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.pssRejectionReason</t>
+    <t>BeLaboratoryPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.requistionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -933,7 +812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -942,7 +821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -952,7 +831,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -972,7 +851,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1398,10 +1277,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1413,13 +1292,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1470,13 +1349,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1490,7 +1369,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1501,7 +1380,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1513,7 +1392,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1576,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1613,13 +1492,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1670,7 +1549,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1690,7 +1569,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1698,7 +1577,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1713,7 +1592,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1773,7 +1652,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -1798,7 +1677,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1813,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1873,7 +1752,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1898,7 +1777,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -1913,13 +1792,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1970,10 +1849,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1990,7 +1869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1998,10 +1877,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2013,13 +1892,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2070,13 +1949,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2090,7 +1969,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2098,7 +1977,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -2113,13 +1992,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2170,10 +2049,10 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2190,7 +2069,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2213,13 +2092,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2270,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2290,7 +2169,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2313,12 +2192,14 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2399,7 +2280,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2411,12 +2292,14 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2466,13 +2349,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2486,7 +2369,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2512,10 +2395,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2566,7 +2449,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2586,7 +2469,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2609,13 +2492,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2666,7 +2549,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -2686,7 +2569,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2694,7 +2577,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>76</v>
@@ -2709,13 +2592,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2766,10 +2649,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2786,7 +2669,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2794,7 +2677,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2809,13 +2692,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2866,10 +2749,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2886,7 +2769,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2909,13 +2792,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2966,7 +2849,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -2986,7 +2869,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2994,10 +2877,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3009,13 +2892,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3066,13 +2949,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3086,7 +2969,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3109,13 +2992,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3142,13 +3025,11 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3166,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3186,7 +3067,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3194,7 +3075,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3209,13 +3090,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3266,10 +3147,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3286,7 +3167,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3297,7 +3178,7 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3309,13 +3190,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3366,13 +3247,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3386,7 +3267,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3397,7 +3278,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3409,13 +3290,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3466,13 +3347,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3486,7 +3367,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3494,7 +3375,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3509,13 +3390,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3566,10 +3447,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3581,1304 +3462,6 @@
         <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -256,17 +256,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
+    <t>BeLaboratoryPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.co-prescriber</t>
@@ -335,6 +357,50 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.basedOn</t>
   </si>
   <si>
@@ -378,35 +444,67 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.intendedProvider</t>
+    <t>BeLaboratoryPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.serviceRequested</t>
@@ -473,20 +571,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.bodySite</t>
+    <t>BeLaboratoryPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -812,7 +942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -821,7 +951,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.21484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -831,7 +961,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -851,7 +981,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1277,10 +1407,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1292,13 +1422,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1349,13 +1479,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1369,7 +1499,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1377,7 +1507,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>76</v>
@@ -1392,7 +1522,7 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1452,7 +1582,7 @@
         <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1480,7 +1610,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1555,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1592,7 +1722,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1692,13 +1822,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1749,7 +1879,7 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1769,7 +1899,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1792,7 +1922,7 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>103</v>
@@ -1877,10 +2007,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1898,7 +2028,7 @@
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1949,13 +2079,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1969,7 +2099,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1992,13 +2122,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2049,7 +2179,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2069,7 +2199,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2092,13 +2222,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2149,7 +2279,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2169,7 +2299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2192,7 +2322,7 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
@@ -2280,7 +2410,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2292,14 +2422,12 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2355,7 +2483,7 @@
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2380,7 +2508,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2392,14 +2520,12 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2449,13 +2575,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2469,7 +2595,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2477,10 +2603,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2492,13 +2618,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2549,13 +2675,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2569,7 +2695,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2592,13 +2718,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2649,7 +2775,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -2669,7 +2795,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2677,7 +2803,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2692,13 +2818,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2749,10 +2875,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2769,7 +2895,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2792,13 +2918,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2849,7 +2975,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -2869,7 +2995,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2892,13 +3018,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2949,7 +3075,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -2969,7 +3095,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2977,10 +3103,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -2995,10 +3121,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3025,35 +3151,37 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3067,7 +3195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3090,13 +3218,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3147,7 +3275,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3167,7 +3295,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3175,10 +3303,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3190,13 +3318,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3247,13 +3375,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3267,7 +3395,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3278,7 +3406,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3290,13 +3418,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3347,13 +3475,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3367,7 +3495,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3375,7 +3503,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3390,13 +3518,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3447,21 +3575,1419 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="L27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.patient</t>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -961,7 +970,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2022,7 +2031,7 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2122,13 +2131,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2179,7 +2188,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2199,7 +2208,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2207,7 +2216,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>76</v>
@@ -2222,7 +2231,7 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2282,7 +2291,7 @@
         <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2322,13 +2331,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2379,7 +2388,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2399,7 +2408,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2422,12 +2431,14 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2520,10 +2531,10 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2575,7 +2586,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2595,7 +2606,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2606,7 +2617,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2618,14 +2629,12 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2675,13 +2684,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2695,7 +2704,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2703,10 +2712,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2718,13 +2727,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2775,13 +2784,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2795,7 +2804,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2803,7 +2812,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2818,7 +2827,7 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
@@ -2878,7 +2887,7 @@
         <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2918,7 +2927,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>138</v>
@@ -3103,10 +3112,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3118,7 +3127,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3178,10 +3187,10 @@
         <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3203,10 +3212,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3218,7 +3227,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>147</v>
@@ -3278,10 +3287,10 @@
         <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3303,7 +3312,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3318,7 +3327,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3378,7 +3387,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3403,7 +3412,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3418,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3478,7 +3487,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3518,7 +3527,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3703,7 +3712,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3718,7 +3727,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3778,7 +3787,7 @@
         <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3818,7 +3827,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>76</v>
@@ -3978,7 +3987,7 @@
         <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4018,13 +4027,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4075,7 +4084,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4095,7 +4104,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4118,7 +4127,7 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>175</v>
@@ -4151,29 +4160,31 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4193,7 +4204,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4216,13 +4227,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4249,13 +4260,11 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>71</v>
@@ -4316,7 +4325,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4416,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4504,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4516,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4579,7 +4588,7 @@
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4604,7 +4613,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4616,7 +4625,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4679,7 +4688,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4716,7 +4725,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4804,7 +4813,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4816,7 +4825,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4879,7 +4888,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4901,10 +4910,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4916,7 +4925,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -4976,10 +4985,10 @@
         <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -4988,6 +4997,106 @@
         <v>71</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.toBePerformedAfter</t>
@@ -951,7 +960,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -960,7 +969,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -990,7 +999,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -3727,7 +3736,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3812,7 +3821,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>76</v>
@@ -3827,7 +3836,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3887,7 +3896,7 @@
         <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -3927,7 +3936,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4012,7 +4021,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4087,7 +4096,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4127,13 +4136,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4184,7 +4193,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4204,7 +4213,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4227,7 +4236,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>178</v>
@@ -4260,29 +4269,31 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4302,7 +4313,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4325,13 +4336,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4358,13 +4369,11 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -4613,7 +4622,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4625,7 +4634,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4688,7 +4697,7 @@
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4713,7 +4722,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4725,7 +4734,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4788,7 +4797,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4913,7 +4922,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4925,7 +4934,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -4988,7 +4997,7 @@
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5010,10 +5019,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5025,7 +5034,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5085,10 +5094,10 @@
         <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5097,6 +5106,106 @@
         <v>71</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4096,7 +4096,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4296,7 +4296,7 @@
         <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>76</v>
@@ -4394,7 +4394,7 @@
         <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -388,101 +388,92 @@
     <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.requisition</t>
+    <t>BeLaboratoryPrescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.requistionType</t>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -516,13 +507,22 @@
     <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
+    <t>BeLaboratoryPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.serviceRequested</t>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.problemCode</t>
@@ -643,13 +652,13 @@
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.intent</t>
+    <t>BeLaboratoryPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
 </sst>
 </file>
@@ -960,7 +969,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2626,7 +2635,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2638,12 +2647,14 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2699,7 +2710,7 @@
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2721,10 +2732,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2736,10 +2747,10 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>131</v>
@@ -2796,10 +2807,10 @@
         <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2821,7 +2832,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2836,13 +2847,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2893,10 +2904,10 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2913,7 +2924,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2936,13 +2947,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2993,7 +3004,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3013,7 +3024,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3039,10 +3050,10 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3093,7 +3104,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3113,7 +3124,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3121,10 +3132,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3136,13 +3147,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3193,13 +3204,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3213,7 +3224,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3221,10 +3232,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3236,13 +3247,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3293,13 +3304,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3313,7 +3324,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3321,7 +3332,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3336,7 +3347,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3396,7 +3407,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3421,7 +3432,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3436,7 +3447,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3496,7 +3507,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3536,7 +3547,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3636,7 +3647,7 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3736,7 +3747,7 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3836,7 +3847,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3936,7 +3947,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4036,7 +4047,7 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>171</v>
@@ -4221,7 +4232,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4236,13 +4247,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4293,10 +4304,10 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4313,7 +4324,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4336,7 +4347,7 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>181</v>
@@ -4369,29 +4380,31 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4411,7 +4424,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4419,7 +4432,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>76</v>
@@ -4434,13 +4447,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4467,13 +4480,11 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4494,7 +4505,7 @@
         <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -4534,7 +4545,7 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4634,7 +4645,7 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4722,7 +4733,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4734,7 +4745,7 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4797,7 +4808,7 @@
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4822,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4834,7 +4845,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4897,7 +4908,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4934,7 +4945,7 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -5022,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5034,7 +5045,7 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5097,7 +5108,7 @@
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5119,10 +5130,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5134,7 +5145,7 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>207</v>
@@ -5194,10 +5205,10 @@
         <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5206,6 +5217,106 @@
         <v>71</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -237,13 +237,76 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -969,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -980,7 +1043,7 @@
   <cols>
     <col min="1" max="1" width="57.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1005,7 +1068,7 @@
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1153,7 +1216,9 @@
       <c r="J2" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1206,7 +1271,7 @@
         <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>72</v>
@@ -1215,18 +1280,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1234,10 +1299,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -1249,13 +1314,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1306,13 +1371,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1321,23 +1386,23 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1349,15 +1414,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1394,39 +1461,39 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1434,10 +1501,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1449,13 +1516,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1506,13 +1573,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1526,7 +1593,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1534,10 +1601,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1549,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1606,13 +1673,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1626,7 +1693,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1634,10 +1701,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1649,13 +1716,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1706,13 +1773,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1726,7 +1793,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1734,10 +1801,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1749,13 +1816,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1806,13 +1873,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1826,7 +1893,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1834,10 +1901,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1849,13 +1916,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1906,13 +1973,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1926,7 +1993,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1937,7 +2004,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1949,13 +2016,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2006,13 +2073,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -2026,7 +2093,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2034,10 +2101,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2049,13 +2116,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2106,13 +2173,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -2126,7 +2193,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2134,10 +2201,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2149,13 +2216,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2206,13 +2273,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2226,7 +2293,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2234,10 +2301,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2249,13 +2316,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2306,13 +2373,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2326,7 +2393,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2334,10 +2401,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2349,13 +2416,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2406,13 +2473,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2426,7 +2493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2434,10 +2501,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2449,13 +2516,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2506,13 +2573,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2526,7 +2593,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2537,7 +2604,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2549,12 +2616,14 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2604,13 +2673,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2624,7 +2693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2635,7 +2704,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2647,13 +2716,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2704,13 +2773,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2724,7 +2793,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2732,10 +2801,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2747,14 +2816,12 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2804,13 +2871,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2824,7 +2891,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2835,7 +2902,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2847,13 +2914,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2904,13 +2971,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2924,7 +2991,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2932,10 +2999,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2947,13 +3014,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3004,13 +3071,13 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3024,7 +3091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3035,7 +3102,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3047,13 +3114,13 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3104,13 +3171,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3124,7 +3191,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3132,10 +3199,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3147,13 +3214,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3204,13 +3271,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3224,7 +3291,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3235,7 +3302,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3247,13 +3314,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3304,13 +3371,13 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
@@ -3324,7 +3391,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3332,10 +3399,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3347,13 +3414,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3404,13 +3471,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3424,7 +3491,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3435,7 +3502,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>71</v>
@@ -3447,13 +3514,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3504,13 +3571,13 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>71</v>
@@ -3524,7 +3591,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3532,10 +3599,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3547,13 +3614,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3604,13 +3671,13 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -3624,7 +3691,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3635,7 +3702,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3647,13 +3714,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3704,13 +3771,13 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
@@ -3724,7 +3791,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3735,7 +3802,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -3747,13 +3814,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3804,13 +3871,13 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
@@ -3824,7 +3891,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3835,7 +3902,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3850,10 +3917,10 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3904,13 +3971,13 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -3924,7 +3991,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3932,10 +3999,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -3947,13 +4014,13 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4004,13 +4071,13 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4024,7 +4091,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4035,7 +4102,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4047,13 +4114,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4104,13 +4171,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4124,7 +4191,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4132,10 +4199,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4147,13 +4214,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4204,13 +4271,13 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
@@ -4224,7 +4291,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4235,7 +4302,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4247,13 +4314,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4304,13 +4371,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4324,7 +4391,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4332,10 +4399,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -4347,13 +4414,13 @@
         <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4404,13 +4471,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -4424,7 +4491,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4432,10 +4499,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4447,13 +4514,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4480,11 +4547,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4502,13 +4571,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -4522,7 +4591,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4530,10 +4599,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -4545,13 +4614,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4602,13 +4671,13 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -4622,7 +4691,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4630,10 +4699,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -4645,13 +4714,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4678,13 +4747,11 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4702,13 +4769,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -4722,7 +4789,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4733,7 +4800,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -4745,13 +4812,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4802,13 +4869,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -4822,7 +4889,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4833,7 +4900,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -4845,13 +4912,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4902,13 +4969,13 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -4922,7 +4989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4933,7 +5000,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -4945,13 +5012,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5002,13 +5069,13 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
@@ -5022,7 +5089,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5033,7 +5100,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5045,13 +5112,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5102,13 +5169,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5122,7 +5189,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5133,7 +5200,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5145,13 +5212,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5202,13 +5269,13 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
@@ -5222,7 +5289,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5230,10 +5297,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5245,13 +5312,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5302,13 +5369,13 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5317,6 +5384,206 @@
         <v>71</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -367,6 +367,42 @@
     <t>BeReferralPrescription.co-prescriber</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
@@ -521,6 +557,15 @@
     <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
   </si>
   <si>
@@ -686,6 +731,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.modifierExtension</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
@@ -1032,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1041,9 +1095,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1985,7 +2039,7 @@
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -1993,7 +2047,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2016,13 +2070,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2073,7 +2127,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2088,23 +2142,23 @@
         <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -2116,15 +2170,17 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>71</v>
@@ -2161,71 +2217,75 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2279,21 +2339,21 @@
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2301,7 +2361,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>79</v>
@@ -2316,13 +2376,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2373,10 +2433,10 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2393,7 +2453,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2416,13 +2476,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2473,7 +2533,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -2493,7 +2553,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2501,7 +2561,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -2516,13 +2576,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2573,10 +2633,10 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2593,7 +2653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2601,7 +2661,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -2616,13 +2676,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2673,10 +2733,10 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -2693,7 +2753,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2701,7 +2761,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
@@ -2716,7 +2776,7 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>139</v>
@@ -2776,7 +2836,7 @@
         <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -2801,7 +2861,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>79</v>
@@ -2816,12 +2876,14 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2871,10 +2933,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2891,7 +2953,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2902,7 +2964,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2914,10 +2976,10 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>146</v>
@@ -2977,7 +3039,7 @@
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2999,7 +3061,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>79</v>
@@ -3074,7 +3136,7 @@
         <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3114,14 +3176,12 @@
         <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3202,7 +3262,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -3214,13 +3274,13 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3271,13 +3331,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -3291,7 +3351,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3299,7 +3359,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>79</v>
@@ -3314,13 +3374,13 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3371,10 +3431,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3391,7 +3451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3399,10 +3459,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -3414,13 +3474,13 @@
         <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3471,13 +3531,13 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
@@ -3491,7 +3551,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3514,13 +3574,13 @@
         <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3571,7 +3631,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3591,7 +3651,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3599,7 +3659,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -3614,13 +3674,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3671,10 +3731,10 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -3691,7 +3751,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3699,10 +3759,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -3714,13 +3774,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3771,19 +3831,19 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
@@ -3791,7 +3851,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3814,13 +3874,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3871,7 +3931,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -3886,23 +3946,23 @@
         <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -3914,15 +3974,17 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -3959,71 +4021,75 @@
         <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4071,27 +4137,27 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4114,13 +4180,13 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4171,7 +4237,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4191,7 +4257,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4214,13 +4280,13 @@
         <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4271,7 +4337,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -4291,7 +4357,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4314,13 +4380,13 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4371,7 +4437,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4391,7 +4457,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4417,10 +4483,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4471,7 +4537,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4491,7 +4557,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4514,13 +4580,13 @@
         <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4571,7 +4637,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4591,7 +4657,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4599,7 +4665,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>79</v>
@@ -4614,13 +4680,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4671,10 +4737,10 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -4691,7 +4757,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4699,7 +4765,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>79</v>
@@ -4714,13 +4780,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4747,11 +4813,13 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -4769,10 +4837,10 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -4789,7 +4857,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4797,7 +4865,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>79</v>
@@ -4812,13 +4880,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4869,10 +4937,10 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4889,7 +4957,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4912,13 +4980,13 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4969,7 +5037,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -4989,7 +5057,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5012,13 +5080,13 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5069,7 +5137,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5089,7 +5157,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5100,7 +5168,7 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5112,13 +5180,13 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5169,13 +5237,13 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
@@ -5189,7 +5257,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5197,7 +5265,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -5212,13 +5280,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5269,10 +5337,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -5289,7 +5357,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5297,7 +5365,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>79</v>
@@ -5312,13 +5380,13 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5345,13 +5413,11 @@
         <v>71</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>71</v>
@@ -5369,10 +5435,10 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -5389,7 +5455,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5400,7 +5466,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5412,13 +5478,13 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5469,13 +5535,13 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
@@ -5489,7 +5555,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5497,7 +5563,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>79</v>
@@ -5512,13 +5578,13 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5569,21 +5635,927 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="249">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1096,41 +1099,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.3984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.53515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1242,133 +1245,139 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>81</v>
@@ -1376,99 +1385,102 @@
       <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>87</v>
@@ -1479,598 +1491,616 @@
       <c r="M4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>81</v>
@@ -2078,99 +2108,102 @@
       <c r="L10" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>87</v>
@@ -2181,1700 +2214,1751 @@
       <c r="M11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L21" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>81</v>
@@ -3882,99 +3966,102 @@
       <c r="L28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>87</v>
@@ -3985,1900 +4072,1957 @@
       <c r="M29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>81</v>
@@ -5886,99 +6030,102 @@
       <c r="L48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>87</v>
@@ -5989,574 +6136,592 @@
       <c r="M49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="N49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all elements</t>
@@ -1277,10 +1281,10 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1334,7 +1338,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1343,21 +1347,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1368,7 +1372,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1380,13 +1384,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1437,13 +1441,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1452,19 +1456,19 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1483,16 +1487,16 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1530,19 +1534,19 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1554,18 +1558,18 @@
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1573,10 +1577,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1588,13 +1592,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1645,13 +1649,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1665,10 +1669,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1676,10 +1680,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1691,13 +1695,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1748,13 +1752,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1768,10 +1772,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1779,10 +1783,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1794,13 +1798,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1851,13 +1855,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1871,10 +1875,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1882,10 +1886,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1897,13 +1901,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1954,13 +1958,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1974,10 +1978,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2000,13 +2004,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2057,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2069,7 +2073,7 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2077,10 +2081,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2091,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2103,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2160,13 +2164,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2175,19 +2179,19 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2206,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2253,19 +2257,19 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2277,22 +2281,22 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2305,25 +2309,25 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
@@ -2372,7 +2376,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2384,18 +2388,18 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2406,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2418,13 +2422,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2475,13 +2479,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2495,10 +2499,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2506,10 +2510,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2521,13 +2525,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2578,13 +2582,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2612,7 +2616,7 @@
         <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2624,13 +2628,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2681,13 +2685,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2701,10 +2705,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2712,10 +2716,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2727,13 +2731,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2784,13 +2788,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2804,10 +2808,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2815,10 +2819,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2830,13 +2834,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2887,13 +2891,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2907,10 +2911,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2918,10 +2922,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2933,13 +2937,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2990,13 +2994,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
@@ -3010,10 +3014,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3024,7 +3028,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3036,13 +3040,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3093,13 +3097,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3113,10 +3117,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3127,7 +3131,7 @@
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3139,13 +3143,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3196,13 +3200,13 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -3216,10 +3220,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3230,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3242,10 +3246,10 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3297,13 +3301,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3317,10 +3321,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3343,13 +3347,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3400,7 +3404,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3420,10 +3424,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3431,10 +3435,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3446,13 +3450,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3503,13 +3507,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3523,10 +3527,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3537,7 +3541,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3549,13 +3553,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3606,13 +3610,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3626,10 +3630,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3640,7 +3644,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3652,13 +3656,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3709,13 +3713,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3729,10 +3733,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3743,7 +3747,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3755,13 +3759,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3812,13 +3816,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3832,10 +3836,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3843,7 +3847,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3858,13 +3862,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3915,10 +3919,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -3927,7 +3931,7 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3935,10 +3939,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3949,7 +3953,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3961,13 +3965,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4018,13 +4022,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -4033,19 +4037,19 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4064,16 +4068,16 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4111,19 +4115,19 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4135,22 +4139,22 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4163,25 +4167,25 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -4230,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4242,18 +4246,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4264,7 +4268,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4276,13 +4280,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4333,13 +4337,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4353,10 +4357,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4364,10 +4368,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4379,13 +4383,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4436,13 +4440,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4456,10 +4460,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4470,7 +4474,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4482,13 +4486,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4539,13 +4543,13 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>72</v>
@@ -4559,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4573,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -4585,13 +4589,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4642,13 +4646,13 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
@@ -4662,10 +4666,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4676,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -4688,13 +4692,13 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4745,13 +4749,13 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>72</v>
@@ -4765,10 +4769,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4779,7 +4783,7 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -4791,13 +4795,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4848,13 +4852,13 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>72</v>
@@ -4868,10 +4872,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4882,7 +4886,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -4894,13 +4898,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4951,13 +4955,13 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
@@ -4971,10 +4975,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4982,10 +4986,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -4997,13 +5001,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5054,13 +5058,13 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>72</v>
@@ -5074,10 +5078,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5088,7 +5092,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -5100,13 +5104,13 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5157,13 +5161,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -5177,10 +5181,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5191,7 +5195,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -5203,13 +5207,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5260,13 +5264,13 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
@@ -5280,10 +5284,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5294,7 +5298,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5306,13 +5310,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5363,13 +5367,13 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
@@ -5383,10 +5387,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5394,10 +5398,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5409,13 +5413,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5466,13 +5470,13 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
@@ -5486,10 +5490,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5497,10 +5501,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -5512,13 +5516,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5545,11 +5549,11 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -5567,13 +5571,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -5587,10 +5591,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5601,7 +5605,7 @@
         <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>72</v>
@@ -5613,13 +5617,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5670,13 +5674,13 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>72</v>
@@ -5690,10 +5694,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5704,7 +5708,7 @@
         <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>72</v>
@@ -5716,13 +5720,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5773,13 +5777,13 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>72</v>
@@ -5793,10 +5797,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5807,7 +5811,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -5819,13 +5823,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5876,13 +5880,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
@@ -5896,10 +5900,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5922,13 +5926,13 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5979,7 +5983,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -5991,7 +5995,7 @@
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -5999,10 +6003,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6013,7 +6017,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -6025,13 +6029,13 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6082,13 +6086,13 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>72</v>
@@ -6097,19 +6101,19 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6128,16 +6132,16 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6175,19 +6179,19 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6199,22 +6203,22 @@
         <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6227,25 +6231,25 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -6294,7 +6298,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6306,18 +6310,18 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6328,7 +6332,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -6340,13 +6344,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6397,13 +6401,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>72</v>
@@ -6417,10 +6421,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6431,7 +6435,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -6443,13 +6447,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6500,13 +6504,13 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>72</v>
@@ -6520,10 +6524,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6546,13 +6550,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6603,7 +6607,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -6623,10 +6627,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6634,10 +6638,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -6649,13 +6653,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6706,13 +6710,13 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>72</v>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -244,23 +244,56 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +309,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,77 +349,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
     <t>BeLaboratoryPrescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
@@ -441,15 +406,6 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
     <t>BeLaboratoryPrescription.patient</t>
   </si>
   <si>
@@ -472,317 +428,182 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.pssRejectionReason</t>
+    <t>BeLaboratoryPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>Period in which the caregiver executes the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>Status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>The reason of the status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>More detailed specification of the prescribed act</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.note</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.prescriptionType</t>
+    <t>BeLaboratoryPrescription.intent</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>BeReferralPrescription.intent</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +914,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK54"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1102,8 +923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1133,7 +954,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1283,9 +1104,7 @@
       <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1338,7 +1157,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1347,21 +1166,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1369,10 +1188,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1384,13 +1203,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1441,13 +1260,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1456,26 +1275,26 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1487,17 +1306,15 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>72</v>
@@ -1534,42 +1351,42 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1577,10 +1394,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1592,13 +1409,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1649,19 +1466,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1669,10 +1486,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1680,10 +1497,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1695,13 +1512,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1752,13 +1569,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1767,26 +1584,26 @@
         <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1798,15 +1615,17 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>72</v>
@@ -1843,34 +1662,34 @@
         <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1882,35 +1701,39 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>72</v>
       </c>
@@ -1958,30 +1781,30 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1992,7 +1815,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -2004,13 +1827,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2061,19 +1884,19 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2081,10 +1904,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2095,7 +1918,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -2107,13 +1930,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2164,13 +1987,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2179,26 +2002,26 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2210,17 +2033,15 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2257,78 +2078,74 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2376,30 +2193,30 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2410,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2422,13 +2239,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2479,13 +2296,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2499,10 +2316,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2510,10 +2327,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2525,13 +2342,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2582,13 +2399,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2602,10 +2419,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2613,10 +2430,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2628,13 +2445,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2685,13 +2502,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2705,10 +2522,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2716,10 +2533,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2731,13 +2548,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2788,13 +2605,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2808,10 +2625,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2819,10 +2636,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2834,13 +2651,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2891,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2911,10 +2728,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2922,10 +2739,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2937,13 +2754,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2994,19 +2811,19 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3014,10 +2831,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3028,7 +2845,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -3040,13 +2857,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3097,13 +2914,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -3112,26 +2929,26 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -3143,15 +2960,17 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3188,72 +3007,78 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3301,30 +3126,30 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3347,13 +3172,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3404,7 +3229,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3424,10 +3249,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3435,10 +3260,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3450,13 +3275,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3507,13 +3332,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3527,10 +3352,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3538,10 +3363,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3553,13 +3378,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3610,13 +3435,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3630,10 +3455,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3641,10 +3466,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3656,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3713,13 +3538,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3733,10 +3558,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3747,7 +3572,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3759,13 +3584,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3816,13 +3641,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3836,10 +3661,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3847,10 +3672,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3862,13 +3687,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3919,19 +3744,19 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3939,10 +3764,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3953,7 +3778,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3965,13 +3790,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3998,13 +3823,11 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -4022,13 +3845,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -4037,7 +3860,7 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -4049,14 +3872,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4068,17 +3891,15 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -4115,46 +3936,46 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4167,26 +3988,22 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4234,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4246,18 +4063,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4268,7 +4085,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4280,13 +4097,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4337,13 +4154,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4357,10 +4174,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4368,10 +4185,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4383,13 +4200,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4440,13 +4257,13 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
@@ -4455,2276 +4272,6 @@
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK54" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -244,13 +244,76 @@
 </t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -263,17 +326,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
+    <t>BeLaboratoryPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.co-prescriber</t>
@@ -296,57 +381,7 @@
     <t>BeLaboratoryPrescription.co-prescriber.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>BeLaboratoryPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.co-prescriber.modifierExtension</t>
@@ -406,6 +441,15 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.patient</t>
   </si>
   <si>
@@ -428,6 +472,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BeLaboratoryPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
     <t>BeLaboratoryPrescription.basedOn</t>
   </si>
   <si>
@@ -471,34 +546,43 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.intendedProvider</t>
+    <t>BeLaboratoryPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -508,7 +592,52 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.serviceRequested</t>
@@ -518,6 +647,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.problemCode</t>
@@ -575,35 +713,76 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.bodySite</t>
+    <t>BeLaboratoryPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BeLaboratoryPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.intent</t>
+    <t>BeLaboratoryPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -923,8 +1102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -954,7 +1133,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1104,7 +1283,9 @@
       <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
@@ -1157,7 +1338,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1166,21 +1347,21 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1188,10 +1369,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1203,13 +1384,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1260,13 +1441,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1275,26 +1456,26 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1306,15 +1487,17 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>72</v>
@@ -1351,42 +1534,42 @@
         <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1394,10 +1577,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1409,13 +1592,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1466,19 +1649,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1486,10 +1669,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1497,10 +1680,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1512,13 +1695,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1569,13 +1752,13 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
@@ -1584,26 +1767,26 @@
         <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1615,17 +1798,15 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>72</v>
@@ -1662,34 +1843,34 @@
         <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1701,39 +1882,35 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>72</v>
       </c>
@@ -1781,30 +1958,30 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1815,7 +1992,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1827,13 +2004,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1884,19 +2061,19 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -1904,10 +2081,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1918,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -1930,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1987,13 +2164,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -2002,26 +2179,26 @@
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -2033,15 +2210,17 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2078,74 +2257,78 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2193,30 +2376,30 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2227,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2239,13 +2422,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2296,13 +2479,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2316,10 +2499,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2327,10 +2510,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2342,13 +2525,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2399,13 +2582,13 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
@@ -2419,10 +2602,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2430,10 +2613,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2445,13 +2628,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2502,13 +2685,13 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2522,10 +2705,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2533,10 +2716,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2548,13 +2731,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2605,13 +2788,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2625,10 +2808,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2636,10 +2819,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2651,13 +2834,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2708,13 +2891,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2728,10 +2911,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2739,10 +2922,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2754,13 +2937,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2811,19 +2994,19 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -2831,10 +3014,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2845,7 +3028,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -2857,13 +3040,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2914,13 +3097,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -2929,26 +3112,26 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -2960,17 +3143,15 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3007,78 +3188,72 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3126,30 +3301,30 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3172,13 +3347,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3229,7 +3404,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3249,10 +3424,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3260,10 +3435,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3275,13 +3450,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3332,13 +3507,13 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>72</v>
@@ -3352,10 +3527,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3363,10 +3538,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3378,13 +3553,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3435,13 +3610,13 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
@@ -3455,10 +3630,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3466,10 +3641,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -3481,13 +3656,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3538,13 +3713,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -3558,10 +3733,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3572,7 +3747,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -3584,13 +3759,13 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3641,13 +3816,13 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>72</v>
@@ -3661,10 +3836,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3672,10 +3847,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -3687,13 +3862,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3744,19 +3919,19 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -3764,10 +3939,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3778,7 +3953,7 @@
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -3790,13 +3965,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3823,11 +3998,13 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
@@ -3845,13 +4022,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
@@ -3860,7 +4037,7 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -3872,14 +4049,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3891,15 +4068,17 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -3936,46 +4115,46 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -3988,22 +4167,26 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -4051,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4063,18 +4246,18 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4085,7 +4268,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4097,13 +4280,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4154,13 +4337,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4174,10 +4357,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4185,10 +4368,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4200,13 +4383,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4257,21 +4440,2291 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="B34" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
+++ b/branches/StructureDefinition-be-model-laboratoryprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="247">
   <si>
     <t>Property</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription</t>
   </si>
   <si>
     <t/>
@@ -244,23 +247,78 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recorder</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.prescriber</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.prescriber</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +334,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,78 +374,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.modifierExtension</t>
+    <t>be-model-laboratoryprescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -410,16 +400,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BeLaboratoryPrescription.co-prescriber.co-prescriber</t>
+    <t>be-model-laboratoryprescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>The co-prescriber party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.co-prescriberType</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber.co-prescriberType</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -429,37 +419,37 @@
     <t>Type of the practitioner</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.status</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber.status</t>
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.co-prescriber.required</t>
+    <t>be-model-referralprescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.co-prescriber.required</t>
   </si>
   <si>
     <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.patient</t>
+    <t>be-model-referralprescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.patient</t>
   </si>
   <si>
     <t>The SSIN of the person for which the referral is prescribed.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriptionNumber</t>
+    <t>be-model-referralprescription.patient</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -469,19 +459,19 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.pssNumber</t>
+    <t>be-model-referralprescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.pssNumber</t>
   </si>
   <si>
     <t>An identifier for the Prescription Search Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.pssRejectionReason</t>
+    <t>be-model-referralprescription.pssNumber</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -491,19 +481,19 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.groupIdentifier</t>
+    <t>be-model-referralprescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.basedOn</t>
+    <t>be-model-referralprescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.basedOn</t>
   </si>
   <si>
     <t>The original request or prescription triggered this prescription</t>
@@ -512,10 +502,10 @@
     <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.validitionPeriod</t>
+    <t>be-model-referralprescription.basedOn</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.validitionPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -525,64 +515,64 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentPeriod</t>
+    <t>be-model-referralprescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.treatmentPeriod</t>
   </si>
   <si>
     <t>When this prescription is executed, available after start of execution</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentValidationEndDate</t>
+    <t>be-model-referralprescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.treatmentValidationEndDate</t>
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.creationEndDate</t>
+    <t>be-model-referralprescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.creationEndDate</t>
   </si>
   <si>
     <t>The prescription must have left the draft status before</t>
   </si>
   <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer</t>
+    <t>be-model-referralprescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.performer</t>
+    <t>be-model-referralprescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.discipline</t>
+    <t>be-model-referralprescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -592,91 +582,91 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.period</t>
+    <t>be-model-referralprescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.period</t>
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.organization</t>
+    <t>be-model-referralprescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.executionPeriod</t>
+    <t>be-model-referralprescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.status</t>
+    <t>be-model-referralprescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.status</t>
   </si>
   <si>
     <t>Status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.intendedPerformer.statusReason</t>
+    <t>be-model-referralprescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.serviceRequested</t>
+    <t>be-model-referralprescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.serviceRequestedDetail</t>
+    <t>be-model-referralprescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.problemCode</t>
+    <t>be-model-referralprescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.problemCode</t>
   </si>
   <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.supportingInfo</t>
+    <t>be-model-referralprescription.problemCode</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.supportingInfo</t>
   </si>
   <si>
     <t>Care Set Problem</t>
   </si>
   <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.resultReceiver</t>
+    <t>be-model-referralprescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.resultReceiver</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -686,10 +676,10 @@
     <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.status</t>
+    <t>be-model-referralprescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.status</t>
   </si>
   <si>
     <t>Current status</t>
@@ -701,88 +691,88 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.statusReason</t>
+    <t>be-model-referralprescription.status</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatus</t>
+    <t>be-model-referralprescription.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.treatmentStatus</t>
   </si>
   <si>
     <t>Status of the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.treatmentStatusReason</t>
+    <t>be-model-referralprescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.treatmentStatusReason</t>
   </si>
   <si>
     <t>Reason treatment status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation</t>
+    <t>be-model-referralprescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation</t>
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodySite</t>
+    <t>be-model-referralprescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.bodyLocation.bodyLaterality</t>
+    <t>be-model-referralprescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>Side of the body</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.note</t>
+    <t>be-model-referralprescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t>BeLaboratoryPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.note</t>
+  </si>
+  <si>
+    <t>be-model-laboratoryprescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.prescriptionType</t>
   </si>
 </sst>
 </file>
@@ -962,7 +952,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -1059,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1093,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK54"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1102,8 +1094,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="65.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1133,7 +1125,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="61.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1255,36 +1247,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>21</v>
@@ -1292,5440 +1284,5232 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
